--- a/backend/data/Data for 24-Aug-2023/Nifty_Data_28-Sep-2023.xlsx
+++ b/backend/data/Data for 24-Aug-2023/Nifty_Data_28-Sep-2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B2" t="n">
-        <v>19350</v>
+        <v>19250</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -572,75 +572,75 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>574</v>
+        <v>349</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F2" t="n">
-        <v>1.773049645390071</v>
+        <v>35.27131782945737</v>
       </c>
       <c r="G2" t="n">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="H2" t="n">
-        <v>9.33</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>392.35</v>
+        <v>393.5</v>
       </c>
       <c r="J2" t="n">
-        <v>33.40000000000003</v>
+        <v>-45.75</v>
       </c>
       <c r="K2" t="n">
-        <v>9.304917119375968</v>
+        <v>-10.41548093340922</v>
       </c>
       <c r="L2" t="n">
-        <v>8700</v>
+        <v>9250</v>
       </c>
       <c r="M2" t="n">
-        <v>9750</v>
+        <v>10500</v>
       </c>
       <c r="N2" t="n">
-        <v>1367</v>
+        <v>1472</v>
       </c>
       <c r="O2" t="n">
-        <v>172</v>
+        <v>734</v>
       </c>
       <c r="P2" t="n">
-        <v>14.39330543933054</v>
+        <v>99.4579945799458</v>
       </c>
       <c r="Q2" t="n">
-        <v>1087</v>
+        <v>3664</v>
       </c>
       <c r="R2" t="n">
-        <v>11.34</v>
+        <v>11.64</v>
       </c>
       <c r="S2" t="n">
-        <v>153.25</v>
+        <v>149</v>
       </c>
       <c r="T2" t="n">
-        <v>-18.44999999999999</v>
+        <v>7.199999999999989</v>
       </c>
       <c r="U2" t="n">
-        <v>-10.74548631333721</v>
+        <v>5.077574047954857</v>
       </c>
       <c r="V2" t="n">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="W2" t="n">
-        <v>12950</v>
+        <v>13250</v>
       </c>
       <c r="X2" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B3" t="n">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -648,75 +648,75 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5395</v>
+        <v>4395</v>
       </c>
       <c r="E3" t="n">
-        <v>-330</v>
+        <v>-209</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.764192139737991</v>
+        <v>-4.539530842745439</v>
       </c>
       <c r="G3" t="n">
-        <v>3474</v>
+        <v>4854</v>
       </c>
       <c r="H3" t="n">
-        <v>9.380000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>357</v>
+        <v>359.4</v>
       </c>
       <c r="J3" t="n">
-        <v>30.80000000000001</v>
+        <v>-33.15000000000003</v>
       </c>
       <c r="K3" t="n">
-        <v>9.442060085836914</v>
+        <v>-8.444784103935813</v>
       </c>
       <c r="L3" t="n">
-        <v>28350</v>
+        <v>24700</v>
       </c>
       <c r="M3" t="n">
-        <v>21900</v>
+        <v>30050</v>
       </c>
       <c r="N3" t="n">
-        <v>14916</v>
+        <v>15659</v>
       </c>
       <c r="O3" t="n">
-        <v>35</v>
+        <v>-377</v>
       </c>
       <c r="P3" t="n">
-        <v>0.2351992473624084</v>
+        <v>-2.350960339236718</v>
       </c>
       <c r="Q3" t="n">
-        <v>12068</v>
+        <v>18502</v>
       </c>
       <c r="R3" t="n">
-        <v>11.25</v>
+        <v>11.56</v>
       </c>
       <c r="S3" t="n">
-        <v>168.95</v>
+        <v>165.55</v>
       </c>
       <c r="T3" t="n">
-        <v>-19.90000000000001</v>
+        <v>8.300000000000011</v>
       </c>
       <c r="U3" t="n">
-        <v>-10.53746359544612</v>
+        <v>5.278219395866461</v>
       </c>
       <c r="V3" t="n">
-        <v>38450</v>
+        <v>39900</v>
       </c>
       <c r="W3" t="n">
-        <v>40950</v>
+        <v>17550</v>
       </c>
       <c r="X3" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B4" t="n">
-        <v>19450</v>
+        <v>19350</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -724,75 +724,75 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>821</v>
+        <v>550</v>
       </c>
       <c r="E4" t="n">
-        <v>202</v>
+        <v>-14</v>
       </c>
       <c r="F4" t="n">
-        <v>32.63327948303716</v>
+        <v>-2.482269503546099</v>
       </c>
       <c r="G4" t="n">
-        <v>944</v>
+        <v>579</v>
       </c>
       <c r="H4" t="n">
-        <v>9.32</v>
+        <v>8.75</v>
       </c>
       <c r="I4" t="n">
-        <v>326.55</v>
+        <v>327.9</v>
       </c>
       <c r="J4" t="n">
-        <v>31.90000000000003</v>
+        <v>-31.05000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>10.82640420838284</v>
+        <v>-8.650229837024659</v>
       </c>
       <c r="L4" t="n">
-        <v>12900</v>
+        <v>9250</v>
       </c>
       <c r="M4" t="n">
-        <v>10350</v>
+        <v>10400</v>
       </c>
       <c r="N4" t="n">
-        <v>1137</v>
+        <v>1324</v>
       </c>
       <c r="O4" t="n">
-        <v>388</v>
+        <v>129</v>
       </c>
       <c r="P4" t="n">
-        <v>51.80240320427237</v>
+        <v>10.79497907949791</v>
       </c>
       <c r="Q4" t="n">
-        <v>1786</v>
+        <v>2069</v>
       </c>
       <c r="R4" t="n">
-        <v>11.17</v>
+        <v>11.47</v>
       </c>
       <c r="S4" t="n">
-        <v>188.75</v>
+        <v>181.8</v>
       </c>
       <c r="T4" t="n">
-        <v>-20</v>
+        <v>10.10000000000002</v>
       </c>
       <c r="U4" t="n">
-        <v>-9.580838323353294</v>
+        <v>5.882352941176484</v>
       </c>
       <c r="V4" t="n">
-        <v>19200</v>
+        <v>16100</v>
       </c>
       <c r="W4" t="n">
-        <v>14550</v>
+        <v>12500</v>
       </c>
       <c r="X4" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B5" t="n">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -800,75 +800,75 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25154</v>
+        <v>6304</v>
       </c>
       <c r="E5" t="n">
-        <v>991</v>
+        <v>579</v>
       </c>
       <c r="F5" t="n">
-        <v>4.101311923188346</v>
+        <v>10.11353711790393</v>
       </c>
       <c r="G5" t="n">
-        <v>19891</v>
+        <v>7677</v>
       </c>
       <c r="H5" t="n">
-        <v>9.31</v>
+        <v>8.75</v>
       </c>
       <c r="I5" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J5" t="n">
-        <v>27.94999999999999</v>
+        <v>-29.19999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>10.46620483055607</v>
+        <v>-8.951563458001223</v>
       </c>
       <c r="L5" t="n">
-        <v>40050</v>
+        <v>30650</v>
       </c>
       <c r="M5" t="n">
-        <v>53350</v>
+        <v>30650</v>
       </c>
       <c r="N5" t="n">
-        <v>34034</v>
+        <v>14941</v>
       </c>
       <c r="O5" t="n">
-        <v>2739</v>
+        <v>60</v>
       </c>
       <c r="P5" t="n">
-        <v>8.75219683655536</v>
+        <v>0.4031987097641287</v>
       </c>
       <c r="Q5" t="n">
-        <v>25572</v>
+        <v>18620</v>
       </c>
       <c r="R5" t="n">
-        <v>11.14</v>
+        <v>11.42</v>
       </c>
       <c r="S5" t="n">
-        <v>207</v>
+        <v>200.85</v>
       </c>
       <c r="T5" t="n">
-        <v>-23.05000000000001</v>
+        <v>12</v>
       </c>
       <c r="U5" t="n">
-        <v>-10.01956096500761</v>
+        <v>6.354249404289118</v>
       </c>
       <c r="V5" t="n">
-        <v>56600</v>
+        <v>37100</v>
       </c>
       <c r="W5" t="n">
-        <v>44000</v>
+        <v>38300</v>
       </c>
       <c r="X5" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B6" t="n">
-        <v>19550</v>
+        <v>19450</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -876,75 +876,75 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1073</v>
+        <v>900</v>
       </c>
       <c r="E6" t="n">
-        <v>-19</v>
+        <v>281</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.73992673992674</v>
+        <v>45.39579967689822</v>
       </c>
       <c r="G6" t="n">
-        <v>1308</v>
+        <v>1718</v>
       </c>
       <c r="H6" t="n">
-        <v>9.25</v>
+        <v>8.77</v>
       </c>
       <c r="I6" t="n">
-        <v>261</v>
+        <v>267.25</v>
       </c>
       <c r="J6" t="n">
-        <v>22.5</v>
+        <v>-27.39999999999998</v>
       </c>
       <c r="K6" t="n">
-        <v>9.433962264150944</v>
+        <v>-9.299168505005932</v>
       </c>
       <c r="L6" t="n">
-        <v>15400</v>
+        <v>14800</v>
       </c>
       <c r="M6" t="n">
-        <v>14750</v>
+        <v>12050</v>
       </c>
       <c r="N6" t="n">
-        <v>770</v>
+        <v>1142</v>
       </c>
       <c r="O6" t="n">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="P6" t="n">
-        <v>43.38919925512104</v>
+        <v>52.46995994659546</v>
       </c>
       <c r="Q6" t="n">
-        <v>1680</v>
+        <v>2751</v>
       </c>
       <c r="R6" t="n">
-        <v>11.07</v>
+        <v>11.34</v>
       </c>
       <c r="S6" t="n">
-        <v>225.15</v>
+        <v>220.65</v>
       </c>
       <c r="T6" t="n">
-        <v>-23.79999999999998</v>
+        <v>11.90000000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>-9.560152641092582</v>
+        <v>5.700598802395213</v>
       </c>
       <c r="V6" t="n">
-        <v>19400</v>
+        <v>21800</v>
       </c>
       <c r="W6" t="n">
-        <v>15300</v>
+        <v>14350</v>
       </c>
       <c r="X6" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45162.54465277777</v>
+        <v>45162.64195601852</v>
       </c>
       <c r="B7" t="n">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -952,75 +952,75 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7583</v>
+        <v>27132</v>
       </c>
       <c r="E7" t="n">
-        <v>851</v>
+        <v>2969</v>
       </c>
       <c r="F7" t="n">
-        <v>12.64111705288176</v>
+        <v>12.28738153374995</v>
       </c>
       <c r="G7" t="n">
-        <v>10156</v>
+        <v>33307</v>
       </c>
       <c r="H7" t="n">
-        <v>9.18</v>
+        <v>8.76</v>
       </c>
       <c r="I7" t="n">
-        <v>237</v>
+        <v>238.55</v>
       </c>
       <c r="J7" t="n">
-        <v>23.25</v>
+        <v>-28.5</v>
       </c>
       <c r="K7" t="n">
-        <v>10.87719298245614</v>
+        <v>-10.67215877176559</v>
       </c>
       <c r="L7" t="n">
-        <v>38750</v>
+        <v>34100</v>
       </c>
       <c r="M7" t="n">
-        <v>37500</v>
+        <v>59750</v>
       </c>
       <c r="N7" t="n">
-        <v>6387</v>
+        <v>35894</v>
       </c>
       <c r="O7" t="n">
-        <v>371</v>
+        <v>4599</v>
       </c>
       <c r="P7" t="n">
-        <v>6.16688829787234</v>
+        <v>14.69563828087554</v>
       </c>
       <c r="Q7" t="n">
-        <v>11944</v>
+        <v>43061</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>11.35</v>
       </c>
       <c r="S7" t="n">
-        <v>247.55</v>
+        <v>243.1</v>
       </c>
       <c r="T7" t="n">
-        <v>-23.80000000000001</v>
+        <v>13.04999999999998</v>
       </c>
       <c r="U7" t="n">
-        <v>-8.770960014741112</v>
+        <v>5.672679852206034</v>
       </c>
       <c r="V7" t="n">
-        <v>37650</v>
+        <v>50150</v>
       </c>
       <c r="W7" t="n">
-        <v>23350</v>
+        <v>34750</v>
       </c>
       <c r="X7" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B8" t="n">
-        <v>19350</v>
+        <v>19250</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1028,75 +1028,75 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>574</v>
+        <v>349</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="F8" t="n">
-        <v>1.773049645390071</v>
+        <v>35.27131782945737</v>
       </c>
       <c r="G8" t="n">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="H8" t="n">
-        <v>9.33</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>392.35</v>
+        <v>397.15</v>
       </c>
       <c r="J8" t="n">
-        <v>33.40000000000003</v>
+        <v>-42.10000000000002</v>
       </c>
       <c r="K8" t="n">
-        <v>9.304917119375968</v>
+        <v>-9.584519066590785</v>
       </c>
       <c r="L8" t="n">
-        <v>7700</v>
+        <v>8800</v>
       </c>
       <c r="M8" t="n">
-        <v>8450</v>
+        <v>10450</v>
       </c>
       <c r="N8" t="n">
-        <v>1367</v>
+        <v>1472</v>
       </c>
       <c r="O8" t="n">
-        <v>172</v>
+        <v>734</v>
       </c>
       <c r="P8" t="n">
-        <v>14.39330543933054</v>
+        <v>99.4579945799458</v>
       </c>
       <c r="Q8" t="n">
-        <v>1085</v>
+        <v>3648</v>
       </c>
       <c r="R8" t="n">
-        <v>11.34</v>
+        <v>11.58</v>
       </c>
       <c r="S8" t="n">
-        <v>156.2</v>
+        <v>147.3</v>
       </c>
       <c r="T8" t="n">
-        <v>-15.5</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>-9.027373325567851</v>
+        <v>3.8787023977433</v>
       </c>
       <c r="V8" t="n">
-        <v>18050</v>
+        <v>14000</v>
       </c>
       <c r="W8" t="n">
-        <v>14650</v>
+        <v>12500</v>
       </c>
       <c r="X8" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B9" t="n">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1104,75 +1104,75 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5395</v>
+        <v>4395</v>
       </c>
       <c r="E9" t="n">
-        <v>-330</v>
+        <v>-209</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.764192139737991</v>
+        <v>-4.539530842745439</v>
       </c>
       <c r="G9" t="n">
-        <v>3451</v>
+        <v>4832</v>
       </c>
       <c r="H9" t="n">
-        <v>9.380000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="I9" t="n">
-        <v>355</v>
+        <v>361.85</v>
       </c>
       <c r="J9" t="n">
-        <v>28.80000000000001</v>
+        <v>-30.69999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>8.828939301042309</v>
+        <v>-7.820659788561963</v>
       </c>
       <c r="L9" t="n">
-        <v>28550</v>
+        <v>25200</v>
       </c>
       <c r="M9" t="n">
-        <v>18650</v>
+        <v>24350</v>
       </c>
       <c r="N9" t="n">
-        <v>14916</v>
+        <v>15659</v>
       </c>
       <c r="O9" t="n">
-        <v>35</v>
+        <v>-377</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2351992473624084</v>
+        <v>-2.350960339236718</v>
       </c>
       <c r="Q9" t="n">
-        <v>12058</v>
+        <v>18448</v>
       </c>
       <c r="R9" t="n">
-        <v>11.25</v>
+        <v>11.52</v>
       </c>
       <c r="S9" t="n">
-        <v>170.15</v>
+        <v>164.25</v>
       </c>
       <c r="T9" t="n">
-        <v>-18.69999999999999</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>-9.902038655017204</v>
+        <v>4.451510333863275</v>
       </c>
       <c r="V9" t="n">
-        <v>37650</v>
+        <v>36550</v>
       </c>
       <c r="W9" t="n">
-        <v>40550</v>
+        <v>17550</v>
       </c>
       <c r="X9" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B10" t="n">
-        <v>19450</v>
+        <v>19350</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1180,75 +1180,75 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>804</v>
+        <v>550</v>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>-14</v>
       </c>
       <c r="F10" t="n">
-        <v>29.88691437802908</v>
+        <v>-2.482269503546099</v>
       </c>
       <c r="G10" t="n">
-        <v>939</v>
+        <v>577</v>
       </c>
       <c r="H10" t="n">
-        <v>9.27</v>
+        <v>8.81</v>
       </c>
       <c r="I10" t="n">
-        <v>324</v>
+        <v>328.95</v>
       </c>
       <c r="J10" t="n">
-        <v>29.35000000000002</v>
+        <v>-30</v>
       </c>
       <c r="K10" t="n">
-        <v>9.960970643135933</v>
+        <v>-8.357709987463435</v>
       </c>
       <c r="L10" t="n">
-        <v>13600</v>
+        <v>6450</v>
       </c>
       <c r="M10" t="n">
-        <v>11250</v>
+        <v>6350</v>
       </c>
       <c r="N10" t="n">
-        <v>1137</v>
+        <v>1324</v>
       </c>
       <c r="O10" t="n">
-        <v>388</v>
+        <v>129</v>
       </c>
       <c r="P10" t="n">
-        <v>51.80240320427237</v>
+        <v>10.79497907949791</v>
       </c>
       <c r="Q10" t="n">
-        <v>1786</v>
+        <v>2067</v>
       </c>
       <c r="R10" t="n">
-        <v>11.17</v>
+        <v>11.45</v>
       </c>
       <c r="S10" t="n">
-        <v>188.75</v>
+        <v>181</v>
       </c>
       <c r="T10" t="n">
-        <v>-20</v>
+        <v>9.300000000000011</v>
       </c>
       <c r="U10" t="n">
-        <v>-9.580838323353294</v>
+        <v>5.416423995340717</v>
       </c>
       <c r="V10" t="n">
-        <v>17950</v>
+        <v>14150</v>
       </c>
       <c r="W10" t="n">
-        <v>11350</v>
+        <v>11100</v>
       </c>
       <c r="X10" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B11" t="n">
-        <v>19500</v>
+        <v>19400</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1256,75 +1256,75 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25154</v>
+        <v>6304</v>
       </c>
       <c r="E11" t="n">
-        <v>991</v>
+        <v>579</v>
       </c>
       <c r="F11" t="n">
-        <v>4.101311923188346</v>
+        <v>10.11353711790393</v>
       </c>
       <c r="G11" t="n">
-        <v>19830</v>
+        <v>7620</v>
       </c>
       <c r="H11" t="n">
-        <v>9.31</v>
+        <v>8.83</v>
       </c>
       <c r="I11" t="n">
-        <v>291.7</v>
+        <v>299</v>
       </c>
       <c r="J11" t="n">
-        <v>24.64999999999998</v>
+        <v>-27.19999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>9.230481183298998</v>
+        <v>-8.338442673206618</v>
       </c>
       <c r="L11" t="n">
-        <v>39500</v>
+        <v>32250</v>
       </c>
       <c r="M11" t="n">
-        <v>52600</v>
+        <v>31300</v>
       </c>
       <c r="N11" t="n">
-        <v>34034</v>
+        <v>14941</v>
       </c>
       <c r="O11" t="n">
-        <v>2739</v>
+        <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>8.75219683655536</v>
+        <v>0.4031987097641287</v>
       </c>
       <c r="Q11" t="n">
-        <v>25515</v>
+        <v>18472</v>
       </c>
       <c r="R11" t="n">
-        <v>11.14</v>
+        <v>11.4</v>
       </c>
       <c r="S11" t="n">
-        <v>208</v>
+        <v>199.25</v>
       </c>
       <c r="T11" t="n">
-        <v>-22.05000000000001</v>
+        <v>10.40000000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.584872853727456</v>
+        <v>5.507016150383906</v>
       </c>
       <c r="V11" t="n">
-        <v>54000</v>
+        <v>38150</v>
       </c>
       <c r="W11" t="n">
-        <v>41750</v>
+        <v>40950</v>
       </c>
       <c r="X11" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B12" t="n">
-        <v>19550</v>
+        <v>19450</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1332,75 +1332,75 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1070</v>
+        <v>900</v>
       </c>
       <c r="E12" t="n">
-        <v>-22</v>
+        <v>281</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.014652014652015</v>
+        <v>45.39579967689822</v>
       </c>
       <c r="G12" t="n">
-        <v>1308</v>
+        <v>1696</v>
       </c>
       <c r="H12" t="n">
-        <v>9.109999999999999</v>
+        <v>8.84</v>
       </c>
       <c r="I12" t="n">
-        <v>261</v>
+        <v>268.85</v>
       </c>
       <c r="J12" t="n">
-        <v>22.5</v>
+        <v>-25.79999999999995</v>
       </c>
       <c r="K12" t="n">
-        <v>9.433962264150944</v>
+        <v>-8.756151366027476</v>
       </c>
       <c r="L12" t="n">
-        <v>15750</v>
+        <v>15150</v>
       </c>
       <c r="M12" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="N12" t="n">
-        <v>770</v>
+        <v>1142</v>
       </c>
       <c r="O12" t="n">
-        <v>233</v>
+        <v>393</v>
       </c>
       <c r="P12" t="n">
-        <v>43.38919925512104</v>
+        <v>52.46995994659546</v>
       </c>
       <c r="Q12" t="n">
-        <v>1680</v>
+        <v>2699</v>
       </c>
       <c r="R12" t="n">
-        <v>11.07</v>
+        <v>11.33</v>
       </c>
       <c r="S12" t="n">
-        <v>225.15</v>
+        <v>217.75</v>
       </c>
       <c r="T12" t="n">
-        <v>-23.79999999999998</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>-9.560152641092582</v>
+        <v>4.311377245508982</v>
       </c>
       <c r="V12" t="n">
-        <v>16950</v>
+        <v>18800</v>
       </c>
       <c r="W12" t="n">
-        <v>14700</v>
+        <v>13950</v>
       </c>
       <c r="X12" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45162.54395833334</v>
+        <v>45162.64126157408</v>
       </c>
       <c r="B13" t="n">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1408,75 +1408,75 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7583</v>
+        <v>27132</v>
       </c>
       <c r="E13" t="n">
-        <v>851</v>
+        <v>2969</v>
       </c>
       <c r="F13" t="n">
-        <v>12.64111705288176</v>
+        <v>12.28738153374995</v>
       </c>
       <c r="G13" t="n">
-        <v>10147</v>
+        <v>33140</v>
       </c>
       <c r="H13" t="n">
-        <v>9.18</v>
+        <v>8.84</v>
       </c>
       <c r="I13" t="n">
-        <v>233.25</v>
+        <v>240.35</v>
       </c>
       <c r="J13" t="n">
-        <v>19.5</v>
+        <v>-26.70000000000002</v>
       </c>
       <c r="K13" t="n">
-        <v>9.12280701754386</v>
+        <v>-9.998127691443557</v>
       </c>
       <c r="L13" t="n">
-        <v>38300</v>
+        <v>36550</v>
       </c>
       <c r="M13" t="n">
-        <v>36650</v>
+        <v>59950</v>
       </c>
       <c r="N13" t="n">
-        <v>6387</v>
+        <v>35894</v>
       </c>
       <c r="O13" t="n">
-        <v>371</v>
+        <v>4599</v>
       </c>
       <c r="P13" t="n">
-        <v>6.16688829787234</v>
+        <v>14.69563828087554</v>
       </c>
       <c r="Q13" t="n">
-        <v>11940</v>
+        <v>42916</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>11.31</v>
       </c>
       <c r="S13" t="n">
-        <v>250.4</v>
+        <v>242.05</v>
       </c>
       <c r="T13" t="n">
-        <v>-20.95000000000002</v>
+        <v>12</v>
       </c>
       <c r="U13" t="n">
-        <v>-7.720655979362452</v>
+        <v>5.216257335361878</v>
       </c>
       <c r="V13" t="n">
-        <v>38650</v>
+        <v>49350</v>
       </c>
       <c r="W13" t="n">
-        <v>23900</v>
+        <v>36800</v>
       </c>
       <c r="X13" t="n">
-        <v>19445.4</v>
+        <v>19383.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B14" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1484,75 +1484,75 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4412</v>
+        <v>349</v>
       </c>
       <c r="E14" t="n">
-        <v>-192</v>
+        <v>91</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.170286707211121</v>
+        <v>35.27131782945737</v>
       </c>
       <c r="G14" t="n">
-        <v>3270</v>
+        <v>242</v>
       </c>
       <c r="H14" t="n">
-        <v>9.31</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>425</v>
+        <v>396.2</v>
       </c>
       <c r="J14" t="n">
-        <v>32.44999999999999</v>
+        <v>-43.05000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>8.266462870971848</v>
+        <v>-9.800796812749006</v>
       </c>
       <c r="L14" t="n">
-        <v>21750</v>
+        <v>9000</v>
       </c>
       <c r="M14" t="n">
-        <v>18600</v>
+        <v>9800</v>
       </c>
       <c r="N14" t="n">
-        <v>15400</v>
+        <v>1470</v>
       </c>
       <c r="O14" t="n">
-        <v>-636</v>
+        <v>732</v>
       </c>
       <c r="P14" t="n">
-        <v>-3.966076328261412</v>
+        <v>99.1869918699187</v>
       </c>
       <c r="Q14" t="n">
-        <v>11749</v>
+        <v>3548</v>
       </c>
       <c r="R14" t="n">
-        <v>11.48</v>
+        <v>11.67</v>
       </c>
       <c r="S14" t="n">
-        <v>138.9</v>
+        <v>148</v>
       </c>
       <c r="T14" t="n">
-        <v>-18.34999999999999</v>
+        <v>6.199999999999989</v>
       </c>
       <c r="U14" t="n">
-        <v>-11.66931637519872</v>
+        <v>4.372355430183348</v>
       </c>
       <c r="V14" t="n">
-        <v>39250</v>
+        <v>15000</v>
       </c>
       <c r="W14" t="n">
-        <v>33300</v>
+        <v>11850</v>
       </c>
       <c r="X14" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B15" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1560,75 +1560,75 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>574</v>
+        <v>4395</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>-209</v>
       </c>
       <c r="F15" t="n">
-        <v>1.773049645390071</v>
+        <v>-4.539530842745439</v>
       </c>
       <c r="G15" t="n">
-        <v>306</v>
+        <v>4614</v>
       </c>
       <c r="H15" t="n">
-        <v>9.859999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>392.35</v>
+        <v>362.5</v>
       </c>
       <c r="J15" t="n">
-        <v>33.40000000000003</v>
+        <v>-30.05000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>9.304917119375968</v>
+        <v>-7.655075786524012</v>
       </c>
       <c r="L15" t="n">
-        <v>7650</v>
+        <v>22700</v>
       </c>
       <c r="M15" t="n">
-        <v>9050</v>
+        <v>24500</v>
       </c>
       <c r="N15" t="n">
-        <v>1368</v>
+        <v>15659</v>
       </c>
       <c r="O15" t="n">
-        <v>173</v>
+        <v>-377</v>
       </c>
       <c r="P15" t="n">
-        <v>14.47698744769875</v>
+        <v>-2.350960339236718</v>
       </c>
       <c r="Q15" t="n">
-        <v>1084</v>
+        <v>18392</v>
       </c>
       <c r="R15" t="n">
-        <v>11.47</v>
+        <v>11.56</v>
       </c>
       <c r="S15" t="n">
-        <v>152.1</v>
+        <v>163.8</v>
       </c>
       <c r="T15" t="n">
-        <v>-19.59999999999999</v>
+        <v>6.550000000000011</v>
       </c>
       <c r="U15" t="n">
-        <v>-11.41525917297612</v>
+        <v>4.165341812400643</v>
       </c>
       <c r="V15" t="n">
-        <v>15100</v>
+        <v>40400</v>
       </c>
       <c r="W15" t="n">
-        <v>11050</v>
+        <v>17650</v>
       </c>
       <c r="X15" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B16" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1636,75 +1636,75 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5359</v>
+        <v>549</v>
       </c>
       <c r="E16" t="n">
-        <v>-366</v>
+        <v>-15</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.393013100436681</v>
+        <v>-2.659574468085106</v>
       </c>
       <c r="G16" t="n">
-        <v>3440</v>
+        <v>550</v>
       </c>
       <c r="H16" t="n">
-        <v>9.300000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="I16" t="n">
-        <v>358</v>
+        <v>328.95</v>
       </c>
       <c r="J16" t="n">
-        <v>31.80000000000001</v>
+        <v>-30</v>
       </c>
       <c r="K16" t="n">
-        <v>9.748620478234216</v>
+        <v>-8.357709987463435</v>
       </c>
       <c r="L16" t="n">
-        <v>28200</v>
+        <v>9000</v>
       </c>
       <c r="M16" t="n">
-        <v>22800</v>
+        <v>8300</v>
       </c>
       <c r="N16" t="n">
-        <v>14933</v>
+        <v>1324</v>
       </c>
       <c r="O16" t="n">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3494388817955782</v>
+        <v>10.79497907949791</v>
       </c>
       <c r="Q16" t="n">
-        <v>12053</v>
+        <v>2001</v>
       </c>
       <c r="R16" t="n">
-        <v>11.31</v>
+        <v>11.53</v>
       </c>
       <c r="S16" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="T16" t="n">
-        <v>-17.84999999999999</v>
+        <v>9.300000000000011</v>
       </c>
       <c r="U16" t="n">
-        <v>-9.451945988880061</v>
+        <v>5.416423995340717</v>
       </c>
       <c r="V16" t="n">
-        <v>35450</v>
+        <v>14900</v>
       </c>
       <c r="W16" t="n">
-        <v>36750</v>
+        <v>11900</v>
       </c>
       <c r="X16" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B17" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1712,75 +1712,75 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>804</v>
+        <v>6304</v>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>579</v>
       </c>
       <c r="F17" t="n">
-        <v>29.88691437802908</v>
+        <v>10.11353711790393</v>
       </c>
       <c r="G17" t="n">
-        <v>939</v>
+        <v>7517</v>
       </c>
       <c r="H17" t="n">
-        <v>9.27</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="J17" t="n">
-        <v>29.35000000000002</v>
+        <v>-27.19999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>9.960970643135933</v>
+        <v>-8.338442673206618</v>
       </c>
       <c r="L17" t="n">
-        <v>13300</v>
+        <v>31400</v>
       </c>
       <c r="M17" t="n">
-        <v>12750</v>
+        <v>31750</v>
       </c>
       <c r="N17" t="n">
-        <v>1137</v>
+        <v>14941</v>
       </c>
       <c r="O17" t="n">
-        <v>388</v>
+        <v>60</v>
       </c>
       <c r="P17" t="n">
-        <v>51.80240320427237</v>
+        <v>0.4031987097641287</v>
       </c>
       <c r="Q17" t="n">
-        <v>1779</v>
+        <v>18304</v>
       </c>
       <c r="R17" t="n">
-        <v>11.29</v>
+        <v>11.44</v>
       </c>
       <c r="S17" t="n">
-        <v>186.25</v>
+        <v>199</v>
       </c>
       <c r="T17" t="n">
-        <v>-22.5</v>
+        <v>10.15000000000001</v>
       </c>
       <c r="U17" t="n">
-        <v>-10.77844311377246</v>
+        <v>5.374635954461215</v>
       </c>
       <c r="V17" t="n">
-        <v>29500</v>
+        <v>38600</v>
       </c>
       <c r="W17" t="n">
-        <v>11200</v>
+        <v>41800</v>
       </c>
       <c r="X17" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B18" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1788,75 +1788,75 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25138</v>
+        <v>897</v>
       </c>
       <c r="E18" t="n">
-        <v>975</v>
+        <v>278</v>
       </c>
       <c r="F18" t="n">
-        <v>4.035094979927989</v>
+        <v>44.91114701130856</v>
       </c>
       <c r="G18" t="n">
-        <v>19794</v>
+        <v>1641</v>
       </c>
       <c r="H18" t="n">
-        <v>9.300000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>291.95</v>
+        <v>268.9</v>
       </c>
       <c r="J18" t="n">
-        <v>24.89999999999998</v>
+        <v>-25.75</v>
       </c>
       <c r="K18" t="n">
-        <v>9.324096611121504</v>
+        <v>-8.739182080434414</v>
       </c>
       <c r="L18" t="n">
-        <v>36700</v>
+        <v>14650</v>
       </c>
       <c r="M18" t="n">
-        <v>53000</v>
+        <v>10950</v>
       </c>
       <c r="N18" t="n">
-        <v>34130</v>
+        <v>1142</v>
       </c>
       <c r="O18" t="n">
-        <v>2835</v>
+        <v>393</v>
       </c>
       <c r="P18" t="n">
-        <v>9.058955104649305</v>
+        <v>52.46995994659546</v>
       </c>
       <c r="Q18" t="n">
-        <v>25473</v>
+        <v>2632</v>
       </c>
       <c r="R18" t="n">
-        <v>11.23</v>
+        <v>11.43</v>
       </c>
       <c r="S18" t="n">
-        <v>207.8</v>
+        <v>219.15</v>
       </c>
       <c r="T18" t="n">
-        <v>-22.25</v>
+        <v>10.40000000000001</v>
       </c>
       <c r="U18" t="n">
-        <v>-9.671810475983483</v>
+        <v>4.982035928143715</v>
       </c>
       <c r="V18" t="n">
-        <v>106500</v>
+        <v>20650</v>
       </c>
       <c r="W18" t="n">
-        <v>41700</v>
+        <v>15050</v>
       </c>
       <c r="X18" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45162.54326388889</v>
+        <v>45162.64056712963</v>
       </c>
       <c r="B19" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1864,75 +1864,75 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1070</v>
+        <v>27132</v>
       </c>
       <c r="E19" t="n">
-        <v>-22</v>
+        <v>2969</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.014652014652015</v>
+        <v>12.28738153374995</v>
       </c>
       <c r="G19" t="n">
-        <v>1303</v>
+        <v>32874</v>
       </c>
       <c r="H19" t="n">
-        <v>9.109999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="I19" t="n">
-        <v>264</v>
+        <v>240.85</v>
       </c>
       <c r="J19" t="n">
-        <v>25.5</v>
+        <v>-26.20000000000002</v>
       </c>
       <c r="K19" t="n">
-        <v>10.69182389937107</v>
+        <v>-9.810896835798545</v>
       </c>
       <c r="L19" t="n">
-        <v>14400</v>
+        <v>36450</v>
       </c>
       <c r="M19" t="n">
-        <v>14400</v>
+        <v>59500</v>
       </c>
       <c r="N19" t="n">
-        <v>765</v>
+        <v>35894</v>
       </c>
       <c r="O19" t="n">
-        <v>228</v>
+        <v>4599</v>
       </c>
       <c r="P19" t="n">
-        <v>42.45810055865922</v>
+        <v>14.69563828087554</v>
       </c>
       <c r="Q19" t="n">
-        <v>1680</v>
+        <v>42697</v>
       </c>
       <c r="R19" t="n">
-        <v>11.2</v>
+        <v>11.39</v>
       </c>
       <c r="S19" t="n">
-        <v>225.15</v>
+        <v>241.9</v>
       </c>
       <c r="T19" t="n">
-        <v>-23.79999999999998</v>
+        <v>11.84999999999999</v>
       </c>
       <c r="U19" t="n">
-        <v>-9.560152641092582</v>
+        <v>5.151054118669852</v>
       </c>
       <c r="V19" t="n">
-        <v>19150</v>
+        <v>49350</v>
       </c>
       <c r="W19" t="n">
-        <v>13200</v>
+        <v>36150</v>
       </c>
       <c r="X19" t="n">
-        <v>19448.65</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B20" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1940,75 +1940,75 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4412</v>
+        <v>349</v>
       </c>
       <c r="E20" t="n">
-        <v>-192</v>
+        <v>91</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.170286707211121</v>
+        <v>35.27131782945737</v>
       </c>
       <c r="G20" t="n">
-        <v>3258</v>
+        <v>242</v>
       </c>
       <c r="H20" t="n">
-        <v>9.31</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>427.5</v>
+        <v>396.2</v>
       </c>
       <c r="J20" t="n">
-        <v>34.94999999999999</v>
+        <v>-43.05000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>8.903324417271682</v>
+        <v>-9.800796812749006</v>
       </c>
       <c r="L20" t="n">
-        <v>23650</v>
+        <v>8700</v>
       </c>
       <c r="M20" t="n">
-        <v>19750</v>
+        <v>10900</v>
       </c>
       <c r="N20" t="n">
-        <v>15399</v>
+        <v>1470</v>
       </c>
       <c r="O20" t="n">
-        <v>-637</v>
+        <v>732</v>
       </c>
       <c r="P20" t="n">
-        <v>-3.972312297331005</v>
+        <v>99.1869918699187</v>
       </c>
       <c r="Q20" t="n">
-        <v>11739</v>
+        <v>3546</v>
       </c>
       <c r="R20" t="n">
-        <v>11.48</v>
+        <v>11.67</v>
       </c>
       <c r="S20" t="n">
-        <v>137.7</v>
+        <v>149.15</v>
       </c>
       <c r="T20" t="n">
-        <v>-19.55000000000001</v>
+        <v>7.349999999999994</v>
       </c>
       <c r="U20" t="n">
-        <v>-12.43243243243244</v>
+        <v>5.183356840620588</v>
       </c>
       <c r="V20" t="n">
-        <v>37300</v>
+        <v>14400</v>
       </c>
       <c r="W20" t="n">
-        <v>31850</v>
+        <v>12150</v>
       </c>
       <c r="X20" t="n">
-        <v>19448.5</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B21" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2016,75 +2016,75 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>574</v>
+        <v>4395</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>-209</v>
       </c>
       <c r="F21" t="n">
-        <v>1.773049645390071</v>
+        <v>-4.539530842745439</v>
       </c>
       <c r="G21" t="n">
-        <v>306</v>
+        <v>4576</v>
       </c>
       <c r="H21" t="n">
-        <v>9.859999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>392.35</v>
+        <v>361.6</v>
       </c>
       <c r="J21" t="n">
-        <v>33.40000000000003</v>
+        <v>-30.94999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>9.304917119375968</v>
+        <v>-7.884345943191946</v>
       </c>
       <c r="L21" t="n">
-        <v>8300</v>
+        <v>24250</v>
       </c>
       <c r="M21" t="n">
-        <v>9000</v>
+        <v>24250</v>
       </c>
       <c r="N21" t="n">
-        <v>1371</v>
+        <v>15659</v>
       </c>
       <c r="O21" t="n">
-        <v>176</v>
+        <v>-377</v>
       </c>
       <c r="P21" t="n">
-        <v>14.72803347280335</v>
+        <v>-2.350960339236718</v>
       </c>
       <c r="Q21" t="n">
-        <v>1084</v>
+        <v>18306</v>
       </c>
       <c r="R21" t="n">
-        <v>11.47</v>
+        <v>11.56</v>
       </c>
       <c r="S21" t="n">
-        <v>152.1</v>
+        <v>165.15</v>
       </c>
       <c r="T21" t="n">
-        <v>-19.59999999999999</v>
+        <v>7.900000000000006</v>
       </c>
       <c r="U21" t="n">
-        <v>-11.41525917297612</v>
+        <v>5.023847376788557</v>
       </c>
       <c r="V21" t="n">
-        <v>14700</v>
+        <v>39550</v>
       </c>
       <c r="W21" t="n">
-        <v>11050</v>
+        <v>17150</v>
       </c>
       <c r="X21" t="n">
-        <v>19448.5</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B22" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2092,75 +2092,75 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5355</v>
+        <v>549</v>
       </c>
       <c r="E22" t="n">
-        <v>-370</v>
+        <v>-15</v>
       </c>
       <c r="F22" t="n">
-        <v>-6.462882096069869</v>
+        <v>-2.659574468085106</v>
       </c>
       <c r="G22" t="n">
-        <v>3439</v>
+        <v>547</v>
       </c>
       <c r="H22" t="n">
-        <v>9.300000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="I22" t="n">
-        <v>360.05</v>
+        <v>329.3</v>
       </c>
       <c r="J22" t="n">
-        <v>33.85000000000002</v>
+        <v>-29.64999999999998</v>
       </c>
       <c r="K22" t="n">
-        <v>10.37706928264869</v>
+        <v>-8.260203370943023</v>
       </c>
       <c r="L22" t="n">
-        <v>23700</v>
+        <v>10600</v>
       </c>
       <c r="M22" t="n">
-        <v>22950</v>
+        <v>8450</v>
       </c>
       <c r="N22" t="n">
-        <v>14919</v>
+        <v>1324</v>
       </c>
       <c r="O22" t="n">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2553591828506149</v>
+        <v>10.79497907949791</v>
       </c>
       <c r="Q22" t="n">
-        <v>11966</v>
+        <v>1992</v>
       </c>
       <c r="R22" t="n">
-        <v>11.31</v>
+        <v>11.53</v>
       </c>
       <c r="S22" t="n">
-        <v>167.9</v>
+        <v>181.05</v>
       </c>
       <c r="T22" t="n">
-        <v>-20.94999999999999</v>
+        <v>9.350000000000023</v>
       </c>
       <c r="U22" t="n">
-        <v>-11.09346041832141</v>
+        <v>5.445544554455459</v>
       </c>
       <c r="V22" t="n">
-        <v>33500</v>
+        <v>13200</v>
       </c>
       <c r="W22" t="n">
-        <v>37200</v>
+        <v>13500</v>
       </c>
       <c r="X22" t="n">
-        <v>19448.5</v>
+        <v>19370.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B23" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2168,75 +2168,75 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>804</v>
+        <v>6304</v>
       </c>
       <c r="E23" t="n">
-        <v>185</v>
+        <v>579</v>
       </c>
       <c r="F23" t="n">
-        <v>29.88691437802908</v>
+        <v>10.11353711790393</v>
       </c>
       <c r="G23" t="n">
-        <v>935</v>
+        <v>7295</v>
       </c>
       <c r="H23" t="n">
-        <v>9.27</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="J23" t="n">
-        <v>32.35000000000002</v>
+        <v>-28.19999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>10.97912777872052</v>
+        <v>-8.645003065603921</v>
       </c>
       <c r="L23" t="n">
-        <v>12050</v>
+        <v>27500</v>
       </c>
       <c r="M23" t="n">
-        <v>12700</v>
+        <v>24150</v>
       </c>
       <c r="N23" t="n">
-        <v>1124</v>
+        <v>15067</v>
       </c>
       <c r="O23" t="n">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="P23" t="n">
-        <v>50.06675567423231</v>
+        <v>1.249916000268799</v>
       </c>
       <c r="Q23" t="n">
-        <v>1778</v>
+        <v>18082</v>
       </c>
       <c r="R23" t="n">
-        <v>11.29</v>
+        <v>11.44</v>
       </c>
       <c r="S23" t="n">
-        <v>185.1</v>
+        <v>200.95</v>
       </c>
       <c r="T23" t="n">
-        <v>-23.65000000000001</v>
+        <v>12.09999999999999</v>
       </c>
       <c r="U23" t="n">
-        <v>-11.32934131736527</v>
+        <v>6.407201482658191</v>
       </c>
       <c r="V23" t="n">
-        <v>28900</v>
+        <v>39650</v>
       </c>
       <c r="W23" t="n">
-        <v>10850</v>
+        <v>30750</v>
       </c>
       <c r="X23" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B24" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2244,75 +2244,75 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25176</v>
+        <v>897</v>
       </c>
       <c r="E24" t="n">
-        <v>1013</v>
+        <v>278</v>
       </c>
       <c r="F24" t="n">
-        <v>4.192360220171336</v>
+        <v>44.91114701130856</v>
       </c>
       <c r="G24" t="n">
-        <v>19685</v>
+        <v>1584</v>
       </c>
       <c r="H24" t="n">
-        <v>9.300000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>296.25</v>
+        <v>268.85</v>
       </c>
       <c r="J24" t="n">
-        <v>29.19999999999999</v>
+        <v>-25.79999999999995</v>
       </c>
       <c r="K24" t="n">
-        <v>10.9342819696686</v>
+        <v>-8.756151366027476</v>
       </c>
       <c r="L24" t="n">
-        <v>41200</v>
+        <v>14550</v>
       </c>
       <c r="M24" t="n">
-        <v>53350</v>
+        <v>11000</v>
       </c>
       <c r="N24" t="n">
-        <v>34130</v>
+        <v>1195</v>
       </c>
       <c r="O24" t="n">
-        <v>2835</v>
+        <v>446</v>
       </c>
       <c r="P24" t="n">
-        <v>9.058955104649305</v>
+        <v>59.54606141522029</v>
       </c>
       <c r="Q24" t="n">
-        <v>25323</v>
+        <v>2632</v>
       </c>
       <c r="R24" t="n">
-        <v>11.23</v>
+        <v>11.43</v>
       </c>
       <c r="S24" t="n">
-        <v>204.45</v>
+        <v>219.15</v>
       </c>
       <c r="T24" t="n">
-        <v>-25.60000000000002</v>
+        <v>10.40000000000001</v>
       </c>
       <c r="U24" t="n">
-        <v>-11.12801564877202</v>
+        <v>4.982035928143715</v>
       </c>
       <c r="V24" t="n">
-        <v>104600</v>
+        <v>19100</v>
       </c>
       <c r="W24" t="n">
-        <v>42050</v>
+        <v>15050</v>
       </c>
       <c r="X24" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45162.54256944444</v>
+        <v>45162.64008101852</v>
       </c>
       <c r="B25" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -2320,75 +2320,75 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1066</v>
+        <v>27187</v>
       </c>
       <c r="E25" t="n">
-        <v>-26</v>
+        <v>3024</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.380952380952381</v>
+        <v>12.51500227620742</v>
       </c>
       <c r="G25" t="n">
-        <v>1296</v>
+        <v>32747</v>
       </c>
       <c r="H25" t="n">
-        <v>9.109999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="I25" t="n">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="J25" t="n">
-        <v>28.5</v>
+        <v>-26.05000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>11.94968553459119</v>
+        <v>-9.75472757910504</v>
       </c>
       <c r="L25" t="n">
-        <v>14400</v>
+        <v>38000</v>
       </c>
       <c r="M25" t="n">
-        <v>13550</v>
+        <v>56600</v>
       </c>
       <c r="N25" t="n">
-        <v>765</v>
+        <v>35941</v>
       </c>
       <c r="O25" t="n">
-        <v>228</v>
+        <v>4646</v>
       </c>
       <c r="P25" t="n">
-        <v>42.45810055865922</v>
+        <v>14.84582201629653</v>
       </c>
       <c r="Q25" t="n">
-        <v>1678</v>
+        <v>42558</v>
       </c>
       <c r="R25" t="n">
-        <v>11.2</v>
+        <v>11.39</v>
       </c>
       <c r="S25" t="n">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="T25" t="n">
-        <v>-23.94999999999999</v>
+        <v>11.94999999999999</v>
       </c>
       <c r="U25" t="n">
-        <v>-9.620405703956614</v>
+        <v>5.194522929797865</v>
       </c>
       <c r="V25" t="n">
-        <v>17650</v>
+        <v>48700</v>
       </c>
       <c r="W25" t="n">
-        <v>12600</v>
+        <v>37450</v>
       </c>
       <c r="X25" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B26" t="n">
-        <v>19300</v>
+        <v>19250</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2396,75 +2396,75 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4412</v>
+        <v>349</v>
       </c>
       <c r="E26" t="n">
-        <v>-192</v>
+        <v>91</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.170286707211121</v>
+        <v>35.27131782945737</v>
       </c>
       <c r="G26" t="n">
-        <v>3258</v>
+        <v>240</v>
       </c>
       <c r="H26" t="n">
-        <v>9.31</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>427.5</v>
+        <v>393.75</v>
       </c>
       <c r="J26" t="n">
-        <v>34.94999999999999</v>
+        <v>-45.5</v>
       </c>
       <c r="K26" t="n">
-        <v>8.903324417271682</v>
+        <v>-10.35856573705179</v>
       </c>
       <c r="L26" t="n">
-        <v>23650</v>
+        <v>10150</v>
       </c>
       <c r="M26" t="n">
-        <v>19750</v>
+        <v>11450</v>
       </c>
       <c r="N26" t="n">
-        <v>15399</v>
+        <v>1470</v>
       </c>
       <c r="O26" t="n">
-        <v>-637</v>
+        <v>732</v>
       </c>
       <c r="P26" t="n">
-        <v>-3.972312297331005</v>
+        <v>99.1869918699187</v>
       </c>
       <c r="Q26" t="n">
-        <v>11739</v>
+        <v>3533</v>
       </c>
       <c r="R26" t="n">
-        <v>11.48</v>
+        <v>11.67</v>
       </c>
       <c r="S26" t="n">
-        <v>137.7</v>
+        <v>149.1</v>
       </c>
       <c r="T26" t="n">
-        <v>-19.55000000000001</v>
+        <v>7.299999999999983</v>
       </c>
       <c r="U26" t="n">
-        <v>-12.43243243243244</v>
+        <v>5.148095909732005</v>
       </c>
       <c r="V26" t="n">
-        <v>37300</v>
+        <v>15050</v>
       </c>
       <c r="W26" t="n">
-        <v>31850</v>
+        <v>12150</v>
       </c>
       <c r="X26" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B27" t="n">
-        <v>19350</v>
+        <v>19300</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2472,75 +2472,75 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>574</v>
+        <v>4423</v>
       </c>
       <c r="E27" t="n">
-        <v>10</v>
+        <v>-181</v>
       </c>
       <c r="F27" t="n">
-        <v>1.773049645390071</v>
+        <v>-3.931364031277151</v>
       </c>
       <c r="G27" t="n">
-        <v>306</v>
+        <v>4560</v>
       </c>
       <c r="H27" t="n">
-        <v>9.859999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>392.35</v>
+        <v>360.4</v>
       </c>
       <c r="J27" t="n">
-        <v>33.40000000000003</v>
+        <v>-32.15000000000003</v>
       </c>
       <c r="K27" t="n">
-        <v>9.304917119375968</v>
+        <v>-8.190039485415879</v>
       </c>
       <c r="L27" t="n">
-        <v>8300</v>
+        <v>23700</v>
       </c>
       <c r="M27" t="n">
-        <v>9000</v>
+        <v>23900</v>
       </c>
       <c r="N27" t="n">
-        <v>1371</v>
+        <v>15554</v>
       </c>
       <c r="O27" t="n">
-        <v>176</v>
+        <v>-482</v>
       </c>
       <c r="P27" t="n">
-        <v>14.72803347280335</v>
+        <v>-3.005737091544026</v>
       </c>
       <c r="Q27" t="n">
-        <v>1084</v>
+        <v>18208</v>
       </c>
       <c r="R27" t="n">
-        <v>11.47</v>
+        <v>11.56</v>
       </c>
       <c r="S27" t="n">
-        <v>152.1</v>
+        <v>166.2</v>
       </c>
       <c r="T27" t="n">
-        <v>-19.59999999999999</v>
+        <v>8.949999999999989</v>
       </c>
       <c r="U27" t="n">
-        <v>-11.41525917297612</v>
+        <v>5.691573926868037</v>
       </c>
       <c r="V27" t="n">
-        <v>14700</v>
+        <v>40150</v>
       </c>
       <c r="W27" t="n">
-        <v>11050</v>
+        <v>19150</v>
       </c>
       <c r="X27" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B28" t="n">
-        <v>19400</v>
+        <v>19350</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2548,75 +2548,75 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5355</v>
+        <v>549</v>
       </c>
       <c r="E28" t="n">
-        <v>-370</v>
+        <v>-15</v>
       </c>
       <c r="F28" t="n">
-        <v>-6.462882096069869</v>
+        <v>-2.659574468085106</v>
       </c>
       <c r="G28" t="n">
-        <v>3439</v>
+        <v>521</v>
       </c>
       <c r="H28" t="n">
-        <v>9.300000000000001</v>
+        <v>8.59</v>
       </c>
       <c r="I28" t="n">
-        <v>360.05</v>
+        <v>328.1</v>
       </c>
       <c r="J28" t="n">
-        <v>33.85000000000002</v>
+        <v>-30.84999999999997</v>
       </c>
       <c r="K28" t="n">
-        <v>10.37706928264869</v>
+        <v>-8.594511770441557</v>
       </c>
       <c r="L28" t="n">
-        <v>23700</v>
+        <v>8800</v>
       </c>
       <c r="M28" t="n">
-        <v>22950</v>
+        <v>10700</v>
       </c>
       <c r="N28" t="n">
-        <v>14919</v>
+        <v>1321</v>
       </c>
       <c r="O28" t="n">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="P28" t="n">
-        <v>0.2553591828506149</v>
+        <v>10.5439330543933</v>
       </c>
       <c r="Q28" t="n">
-        <v>11966</v>
+        <v>1975</v>
       </c>
       <c r="R28" t="n">
-        <v>11.31</v>
+        <v>11.53</v>
       </c>
       <c r="S28" t="n">
-        <v>167.9</v>
+        <v>183.75</v>
       </c>
       <c r="T28" t="n">
-        <v>-20.94999999999999</v>
+        <v>12.05000000000001</v>
       </c>
       <c r="U28" t="n">
-        <v>-11.09346041832141</v>
+        <v>7.018054746651142</v>
       </c>
       <c r="V28" t="n">
-        <v>33500</v>
+        <v>17650</v>
       </c>
       <c r="W28" t="n">
-        <v>37200</v>
+        <v>13550</v>
       </c>
       <c r="X28" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B29" t="n">
-        <v>19450</v>
+        <v>19400</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2624,75 +2624,75 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>804</v>
+        <v>6309</v>
       </c>
       <c r="E29" t="n">
-        <v>185</v>
+        <v>584</v>
       </c>
       <c r="F29" t="n">
-        <v>29.88691437802908</v>
+        <v>10.20087336244542</v>
       </c>
       <c r="G29" t="n">
-        <v>935</v>
+        <v>7114</v>
       </c>
       <c r="H29" t="n">
-        <v>9.27</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>327</v>
+        <v>296.25</v>
       </c>
       <c r="J29" t="n">
-        <v>32.35000000000002</v>
+        <v>-29.94999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>10.97912777872052</v>
+        <v>-9.181483752299199</v>
       </c>
       <c r="L29" t="n">
-        <v>12050</v>
+        <v>29300</v>
       </c>
       <c r="M29" t="n">
-        <v>12700</v>
+        <v>32400</v>
       </c>
       <c r="N29" t="n">
-        <v>1124</v>
+        <v>15067</v>
       </c>
       <c r="O29" t="n">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="P29" t="n">
-        <v>50.06675567423231</v>
+        <v>1.249916000268799</v>
       </c>
       <c r="Q29" t="n">
-        <v>1778</v>
+        <v>18035</v>
       </c>
       <c r="R29" t="n">
-        <v>11.29</v>
+        <v>11.44</v>
       </c>
       <c r="S29" t="n">
-        <v>185.1</v>
+        <v>201.95</v>
       </c>
       <c r="T29" t="n">
-        <v>-23.65000000000001</v>
+        <v>13.09999999999999</v>
       </c>
       <c r="U29" t="n">
-        <v>-11.32934131736527</v>
+        <v>6.936722266348952</v>
       </c>
       <c r="V29" t="n">
-        <v>28900</v>
+        <v>39800</v>
       </c>
       <c r="W29" t="n">
-        <v>10850</v>
+        <v>30400</v>
       </c>
       <c r="X29" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B30" t="n">
-        <v>19500</v>
+        <v>19450</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2700,75 +2700,75 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>25176</v>
+        <v>897</v>
       </c>
       <c r="E30" t="n">
-        <v>1013</v>
+        <v>278</v>
       </c>
       <c r="F30" t="n">
-        <v>4.192360220171336</v>
+        <v>44.91114701130856</v>
       </c>
       <c r="G30" t="n">
-        <v>19685</v>
+        <v>1575</v>
       </c>
       <c r="H30" t="n">
-        <v>9.300000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>296.25</v>
+        <v>267.45</v>
       </c>
       <c r="J30" t="n">
-        <v>29.19999999999999</v>
+        <v>-27.19999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>10.9342819696686</v>
+        <v>-9.23129136263363</v>
       </c>
       <c r="L30" t="n">
-        <v>41200</v>
+        <v>14250</v>
       </c>
       <c r="M30" t="n">
-        <v>53350</v>
+        <v>10850</v>
       </c>
       <c r="N30" t="n">
-        <v>34130</v>
+        <v>1195</v>
       </c>
       <c r="O30" t="n">
-        <v>2835</v>
+        <v>446</v>
       </c>
       <c r="P30" t="n">
-        <v>9.058955104649305</v>
+        <v>59.54606141522029</v>
       </c>
       <c r="Q30" t="n">
-        <v>25323</v>
+        <v>2612</v>
       </c>
       <c r="R30" t="n">
-        <v>11.23</v>
+        <v>11.43</v>
       </c>
       <c r="S30" t="n">
-        <v>204.45</v>
+        <v>222.25</v>
       </c>
       <c r="T30" t="n">
-        <v>-25.60000000000002</v>
+        <v>13.5</v>
       </c>
       <c r="U30" t="n">
-        <v>-11.12801564877202</v>
+        <v>6.467065868263473</v>
       </c>
       <c r="V30" t="n">
-        <v>104600</v>
+        <v>22200</v>
       </c>
       <c r="W30" t="n">
-        <v>42050</v>
+        <v>15150</v>
       </c>
       <c r="X30" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45162.541875</v>
+        <v>45162.63928240741</v>
       </c>
       <c r="B31" t="n">
-        <v>19550</v>
+        <v>19500</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2776,72 +2776,72 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1066</v>
+        <v>27187</v>
       </c>
       <c r="E31" t="n">
-        <v>-26</v>
+        <v>3024</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.380952380952381</v>
+        <v>12.51500227620742</v>
       </c>
       <c r="G31" t="n">
-        <v>1296</v>
+        <v>32479</v>
       </c>
       <c r="H31" t="n">
-        <v>9.109999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="I31" t="n">
-        <v>267</v>
+        <v>239.55</v>
       </c>
       <c r="J31" t="n">
-        <v>28.5</v>
+        <v>-27.5</v>
       </c>
       <c r="K31" t="n">
-        <v>11.94968553459119</v>
+        <v>-10.29769706047557</v>
       </c>
       <c r="L31" t="n">
-        <v>14400</v>
+        <v>33500</v>
       </c>
       <c r="M31" t="n">
-        <v>13550</v>
+        <v>60300</v>
       </c>
       <c r="N31" t="n">
-        <v>765</v>
+        <v>35941</v>
       </c>
       <c r="O31" t="n">
-        <v>228</v>
+        <v>4646</v>
       </c>
       <c r="P31" t="n">
-        <v>42.45810055865922</v>
+        <v>14.84582201629653</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678</v>
+        <v>42348</v>
       </c>
       <c r="R31" t="n">
-        <v>11.2</v>
+        <v>11.39</v>
       </c>
       <c r="S31" t="n">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="T31" t="n">
-        <v>-23.94999999999999</v>
+        <v>14.94999999999999</v>
       </c>
       <c r="U31" t="n">
-        <v>-9.620405703956614</v>
+        <v>6.498587263638335</v>
       </c>
       <c r="V31" t="n">
-        <v>17650</v>
+        <v>48850</v>
       </c>
       <c r="W31" t="n">
-        <v>12600</v>
+        <v>32950</v>
       </c>
       <c r="X31" t="n">
-        <v>19448.5</v>
+        <v>19379.05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B32" t="n">
         <v>19350</v>
@@ -2852,19 +2852,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>1.595744680851064</v>
+        <v>1.773049645390071</v>
       </c>
       <c r="G32" t="n">
         <v>306</v>
       </c>
       <c r="H32" t="n">
-        <v>9.859999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="I32" t="n">
         <v>392.35</v>
@@ -2876,48 +2876,48 @@
         <v>9.304917119375968</v>
       </c>
       <c r="L32" t="n">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="M32" t="n">
-        <v>8950</v>
+        <v>9750</v>
       </c>
       <c r="N32" t="n">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="O32" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P32" t="n">
-        <v>14.72803347280335</v>
+        <v>14.39330543933054</v>
       </c>
       <c r="Q32" t="n">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="R32" t="n">
-        <v>11.47</v>
+        <v>11.34</v>
       </c>
       <c r="S32" t="n">
-        <v>152.65</v>
+        <v>153.25</v>
       </c>
       <c r="T32" t="n">
-        <v>-19.04999999999998</v>
+        <v>-18.44999999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>-11.09493302271403</v>
+        <v>-10.74548631333721</v>
       </c>
       <c r="V32" t="n">
-        <v>14300</v>
+        <v>15100</v>
       </c>
       <c r="W32" t="n">
-        <v>10650</v>
+        <v>12950</v>
       </c>
       <c r="X32" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B33" t="n">
         <v>19400</v>
@@ -2928,72 +2928,72 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5353</v>
+        <v>5395</v>
       </c>
       <c r="E33" t="n">
-        <v>-372</v>
+        <v>-330</v>
       </c>
       <c r="F33" t="n">
-        <v>-6.497816593886463</v>
+        <v>-5.764192139737991</v>
       </c>
       <c r="G33" t="n">
-        <v>3395</v>
+        <v>3474</v>
       </c>
       <c r="H33" t="n">
-        <v>9.300000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>358.45</v>
+        <v>357</v>
       </c>
       <c r="J33" t="n">
-        <v>32.25</v>
+        <v>30.80000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>9.886572654813</v>
+        <v>9.442060085836914</v>
       </c>
       <c r="L33" t="n">
-        <v>29350</v>
+        <v>28350</v>
       </c>
       <c r="M33" t="n">
-        <v>18550</v>
+        <v>21900</v>
       </c>
       <c r="N33" t="n">
-        <v>14919</v>
+        <v>14916</v>
       </c>
       <c r="O33" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2553591828506149</v>
+        <v>0.2351992473624084</v>
       </c>
       <c r="Q33" t="n">
-        <v>11930</v>
+        <v>12068</v>
       </c>
       <c r="R33" t="n">
-        <v>11.31</v>
+        <v>11.25</v>
       </c>
       <c r="S33" t="n">
-        <v>169</v>
+        <v>168.95</v>
       </c>
       <c r="T33" t="n">
-        <v>-19.84999999999999</v>
+        <v>-19.90000000000001</v>
       </c>
       <c r="U33" t="n">
-        <v>-10.51098755626158</v>
+        <v>-10.53746359544612</v>
       </c>
       <c r="V33" t="n">
-        <v>33200</v>
+        <v>38450</v>
       </c>
       <c r="W33" t="n">
-        <v>38200</v>
+        <v>40950</v>
       </c>
       <c r="X33" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B34" t="n">
         <v>19450</v>
@@ -3004,72 +3004,72 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="E34" t="n">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F34" t="n">
-        <v>28.75605815831987</v>
+        <v>32.63327948303716</v>
       </c>
       <c r="G34" t="n">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="H34" t="n">
-        <v>9.27</v>
+        <v>9.32</v>
       </c>
       <c r="I34" t="n">
-        <v>325.7</v>
+        <v>326.55</v>
       </c>
       <c r="J34" t="n">
-        <v>31.05000000000001</v>
+        <v>31.90000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>10.53792635330053</v>
+        <v>10.82640420838284</v>
       </c>
       <c r="L34" t="n">
-        <v>14700</v>
+        <v>12900</v>
       </c>
       <c r="M34" t="n">
-        <v>12300</v>
+        <v>10350</v>
       </c>
       <c r="N34" t="n">
-        <v>1124</v>
+        <v>1137</v>
       </c>
       <c r="O34" t="n">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="P34" t="n">
-        <v>50.06675567423231</v>
+        <v>51.80240320427237</v>
       </c>
       <c r="Q34" t="n">
-        <v>1752</v>
+        <v>1786</v>
       </c>
       <c r="R34" t="n">
-        <v>11.29</v>
+        <v>11.17</v>
       </c>
       <c r="S34" t="n">
-        <v>185.95</v>
+        <v>188.75</v>
       </c>
       <c r="T34" t="n">
-        <v>-22.80000000000001</v>
+        <v>-20</v>
       </c>
       <c r="U34" t="n">
-        <v>-10.92215568862276</v>
+        <v>-9.580838323353294</v>
       </c>
       <c r="V34" t="n">
-        <v>28800</v>
+        <v>19200</v>
       </c>
       <c r="W34" t="n">
-        <v>10500</v>
+        <v>14550</v>
       </c>
       <c r="X34" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B35" t="n">
         <v>19500</v>
@@ -3080,72 +3080,72 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>25176</v>
+        <v>25154</v>
       </c>
       <c r="E35" t="n">
-        <v>1013</v>
+        <v>991</v>
       </c>
       <c r="F35" t="n">
-        <v>4.192360220171336</v>
+        <v>4.101311923188346</v>
       </c>
       <c r="G35" t="n">
-        <v>19643</v>
+        <v>19891</v>
       </c>
       <c r="H35" t="n">
-        <v>9.300000000000001</v>
+        <v>9.31</v>
       </c>
       <c r="I35" t="n">
-        <v>296.15</v>
+        <v>295</v>
       </c>
       <c r="J35" t="n">
-        <v>29.09999999999997</v>
+        <v>27.94999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>10.89683579853959</v>
+        <v>10.46620483055607</v>
       </c>
       <c r="L35" t="n">
-        <v>39250</v>
+        <v>40050</v>
       </c>
       <c r="M35" t="n">
-        <v>53050</v>
+        <v>53350</v>
       </c>
       <c r="N35" t="n">
-        <v>34130</v>
+        <v>34034</v>
       </c>
       <c r="O35" t="n">
-        <v>2835</v>
+        <v>2739</v>
       </c>
       <c r="P35" t="n">
-        <v>9.058955104649305</v>
+        <v>8.75219683655536</v>
       </c>
       <c r="Q35" t="n">
-        <v>25200</v>
+        <v>25572</v>
       </c>
       <c r="R35" t="n">
-        <v>11.23</v>
+        <v>11.14</v>
       </c>
       <c r="S35" t="n">
-        <v>205.1</v>
+        <v>207</v>
       </c>
       <c r="T35" t="n">
-        <v>-24.95000000000002</v>
+        <v>-23.05000000000001</v>
       </c>
       <c r="U35" t="n">
-        <v>-10.84546837643991</v>
+        <v>-10.01956096500761</v>
       </c>
       <c r="V35" t="n">
-        <v>104400</v>
+        <v>56600</v>
       </c>
       <c r="W35" t="n">
-        <v>43050</v>
+        <v>44000</v>
       </c>
       <c r="X35" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B36" t="n">
         <v>19550</v>
@@ -3156,72 +3156,72 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="E36" t="n">
-        <v>-27</v>
+        <v>-19</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.472527472527473</v>
+        <v>-1.73992673992674</v>
       </c>
       <c r="G36" t="n">
-        <v>1286</v>
+        <v>1308</v>
       </c>
       <c r="H36" t="n">
-        <v>9.109999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="I36" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J36" t="n">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="K36" t="n">
-        <v>11.53039832285115</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>15400</v>
       </c>
       <c r="M36" t="n">
-        <v>13150</v>
+        <v>14750</v>
       </c>
       <c r="N36" t="n">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="O36" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P36" t="n">
-        <v>42.45810055865922</v>
+        <v>43.38919925512104</v>
       </c>
       <c r="Q36" t="n">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="R36" t="n">
-        <v>11.2</v>
+        <v>11.07</v>
       </c>
       <c r="S36" t="n">
-        <v>225</v>
+        <v>225.15</v>
       </c>
       <c r="T36" t="n">
-        <v>-23.94999999999999</v>
+        <v>-23.79999999999998</v>
       </c>
       <c r="U36" t="n">
-        <v>-9.620405703956614</v>
+        <v>-9.560152641092582</v>
       </c>
       <c r="V36" t="n">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="W36" t="n">
-        <v>11750</v>
+        <v>15300</v>
       </c>
       <c r="X36" t="n">
-        <v>19446.25</v>
+        <v>19445.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45162.54118055556</v>
+        <v>45162.54465277777</v>
       </c>
       <c r="B37" t="n">
         <v>19600</v>
@@ -3232,66 +3232,2346 @@
         </is>
       </c>
       <c r="D37" t="n">
+        <v>7583</v>
+      </c>
+      <c r="E37" t="n">
+        <v>851</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12.64111705288176</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10156</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="I37" t="n">
+        <v>237</v>
+      </c>
+      <c r="J37" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10.87719298245614</v>
+      </c>
+      <c r="L37" t="n">
+        <v>38750</v>
+      </c>
+      <c r="M37" t="n">
+        <v>37500</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6387</v>
+      </c>
+      <c r="O37" t="n">
+        <v>371</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6.16688829787234</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>11944</v>
+      </c>
+      <c r="R37" t="n">
+        <v>11</v>
+      </c>
+      <c r="S37" t="n">
+        <v>247.55</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-23.80000000000001</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-8.770960014741112</v>
+      </c>
+      <c r="V37" t="n">
+        <v>37650</v>
+      </c>
+      <c r="W37" t="n">
+        <v>23350</v>
+      </c>
+      <c r="X37" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>574</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.773049645390071</v>
+      </c>
+      <c r="G38" t="n">
+        <v>306</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="I38" t="n">
+        <v>392.35</v>
+      </c>
+      <c r="J38" t="n">
+        <v>33.40000000000003</v>
+      </c>
+      <c r="K38" t="n">
+        <v>9.304917119375968</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7700</v>
+      </c>
+      <c r="M38" t="n">
+        <v>8450</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1367</v>
+      </c>
+      <c r="O38" t="n">
+        <v>172</v>
+      </c>
+      <c r="P38" t="n">
+        <v>14.39330543933054</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1085</v>
+      </c>
+      <c r="R38" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="S38" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-9.027373325567851</v>
+      </c>
+      <c r="V38" t="n">
+        <v>18050</v>
+      </c>
+      <c r="W38" t="n">
+        <v>14650</v>
+      </c>
+      <c r="X38" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B39" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5395</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-330</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-5.764192139737991</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3451</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>355</v>
+      </c>
+      <c r="J39" t="n">
+        <v>28.80000000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.828939301042309</v>
+      </c>
+      <c r="L39" t="n">
+        <v>28550</v>
+      </c>
+      <c r="M39" t="n">
+        <v>18650</v>
+      </c>
+      <c r="N39" t="n">
+        <v>14916</v>
+      </c>
+      <c r="O39" t="n">
+        <v>35</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.2351992473624084</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>12058</v>
+      </c>
+      <c r="R39" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="S39" t="n">
+        <v>170.15</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-18.69999999999999</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-9.902038655017204</v>
+      </c>
+      <c r="V39" t="n">
+        <v>37650</v>
+      </c>
+      <c r="W39" t="n">
+        <v>40550</v>
+      </c>
+      <c r="X39" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B40" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>804</v>
+      </c>
+      <c r="E40" t="n">
+        <v>185</v>
+      </c>
+      <c r="F40" t="n">
+        <v>29.88691437802908</v>
+      </c>
+      <c r="G40" t="n">
+        <v>939</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I40" t="n">
+        <v>324</v>
+      </c>
+      <c r="J40" t="n">
+        <v>29.35000000000002</v>
+      </c>
+      <c r="K40" t="n">
+        <v>9.960970643135933</v>
+      </c>
+      <c r="L40" t="n">
+        <v>13600</v>
+      </c>
+      <c r="M40" t="n">
+        <v>11250</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1137</v>
+      </c>
+      <c r="O40" t="n">
+        <v>388</v>
+      </c>
+      <c r="P40" t="n">
+        <v>51.80240320427237</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1786</v>
+      </c>
+      <c r="R40" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="S40" t="n">
+        <v>188.75</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-20</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-9.580838323353294</v>
+      </c>
+      <c r="V40" t="n">
+        <v>17950</v>
+      </c>
+      <c r="W40" t="n">
+        <v>11350</v>
+      </c>
+      <c r="X40" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B41" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>25154</v>
+      </c>
+      <c r="E41" t="n">
+        <v>991</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.101311923188346</v>
+      </c>
+      <c r="G41" t="n">
+        <v>19830</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="I41" t="n">
+        <v>291.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>24.64999999999998</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9.230481183298998</v>
+      </c>
+      <c r="L41" t="n">
+        <v>39500</v>
+      </c>
+      <c r="M41" t="n">
+        <v>52600</v>
+      </c>
+      <c r="N41" t="n">
+        <v>34034</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2739</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.75219683655536</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>25515</v>
+      </c>
+      <c r="R41" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="S41" t="n">
+        <v>208</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-22.05000000000001</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-9.584872853727456</v>
+      </c>
+      <c r="V41" t="n">
+        <v>54000</v>
+      </c>
+      <c r="W41" t="n">
+        <v>41750</v>
+      </c>
+      <c r="X41" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B42" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1070</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-2.014652014652015</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1308</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>261</v>
+      </c>
+      <c r="J42" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>9.433962264150944</v>
+      </c>
+      <c r="L42" t="n">
+        <v>15750</v>
+      </c>
+      <c r="M42" t="n">
+        <v>11750</v>
+      </c>
+      <c r="N42" t="n">
+        <v>770</v>
+      </c>
+      <c r="O42" t="n">
+        <v>233</v>
+      </c>
+      <c r="P42" t="n">
+        <v>43.38919925512104</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1680</v>
+      </c>
+      <c r="R42" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="S42" t="n">
+        <v>225.15</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-23.79999999999998</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-9.560152641092582</v>
+      </c>
+      <c r="V42" t="n">
+        <v>16950</v>
+      </c>
+      <c r="W42" t="n">
+        <v>14700</v>
+      </c>
+      <c r="X42" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45162.54395833334</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19600</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>7583</v>
+      </c>
+      <c r="E43" t="n">
+        <v>851</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12.64111705288176</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10147</v>
+      </c>
+      <c r="H43" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="I43" t="n">
+        <v>233.25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>9.12280701754386</v>
+      </c>
+      <c r="L43" t="n">
+        <v>38300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>36650</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6387</v>
+      </c>
+      <c r="O43" t="n">
+        <v>371</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6.16688829787234</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>11940</v>
+      </c>
+      <c r="R43" t="n">
+        <v>11</v>
+      </c>
+      <c r="S43" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-20.95000000000002</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-7.720655979362452</v>
+      </c>
+      <c r="V43" t="n">
+        <v>38650</v>
+      </c>
+      <c r="W43" t="n">
+        <v>23900</v>
+      </c>
+      <c r="X43" t="n">
+        <v>19445.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4412</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-192</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-4.170286707211121</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3270</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="I44" t="n">
+        <v>425</v>
+      </c>
+      <c r="J44" t="n">
+        <v>32.44999999999999</v>
+      </c>
+      <c r="K44" t="n">
+        <v>8.266462870971848</v>
+      </c>
+      <c r="L44" t="n">
+        <v>21750</v>
+      </c>
+      <c r="M44" t="n">
+        <v>18600</v>
+      </c>
+      <c r="N44" t="n">
+        <v>15400</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-636</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-3.966076328261412</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>11749</v>
+      </c>
+      <c r="R44" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="S44" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-18.34999999999999</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-11.66931637519872</v>
+      </c>
+      <c r="V44" t="n">
+        <v>39250</v>
+      </c>
+      <c r="W44" t="n">
+        <v>33300</v>
+      </c>
+      <c r="X44" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B45" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>574</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.773049645390071</v>
+      </c>
+      <c r="G45" t="n">
+        <v>306</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="I45" t="n">
+        <v>392.35</v>
+      </c>
+      <c r="J45" t="n">
+        <v>33.40000000000003</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9.304917119375968</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7650</v>
+      </c>
+      <c r="M45" t="n">
+        <v>9050</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1368</v>
+      </c>
+      <c r="O45" t="n">
+        <v>173</v>
+      </c>
+      <c r="P45" t="n">
+        <v>14.47698744769875</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1084</v>
+      </c>
+      <c r="R45" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="S45" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-19.59999999999999</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-11.41525917297612</v>
+      </c>
+      <c r="V45" t="n">
+        <v>15100</v>
+      </c>
+      <c r="W45" t="n">
+        <v>11050</v>
+      </c>
+      <c r="X45" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>5359</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-366</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-6.393013100436681</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3440</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>358</v>
+      </c>
+      <c r="J46" t="n">
+        <v>31.80000000000001</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9.748620478234216</v>
+      </c>
+      <c r="L46" t="n">
+        <v>28200</v>
+      </c>
+      <c r="M46" t="n">
+        <v>22800</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14933</v>
+      </c>
+      <c r="O46" t="n">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.3494388817955782</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>12053</v>
+      </c>
+      <c r="R46" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="S46" t="n">
+        <v>171</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-17.84999999999999</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-9.451945988880061</v>
+      </c>
+      <c r="V46" t="n">
+        <v>35450</v>
+      </c>
+      <c r="W46" t="n">
+        <v>36750</v>
+      </c>
+      <c r="X46" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>804</v>
+      </c>
+      <c r="E47" t="n">
+        <v>185</v>
+      </c>
+      <c r="F47" t="n">
+        <v>29.88691437802908</v>
+      </c>
+      <c r="G47" t="n">
+        <v>939</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I47" t="n">
+        <v>324</v>
+      </c>
+      <c r="J47" t="n">
+        <v>29.35000000000002</v>
+      </c>
+      <c r="K47" t="n">
+        <v>9.960970643135933</v>
+      </c>
+      <c r="L47" t="n">
+        <v>13300</v>
+      </c>
+      <c r="M47" t="n">
+        <v>12750</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1137</v>
+      </c>
+      <c r="O47" t="n">
+        <v>388</v>
+      </c>
+      <c r="P47" t="n">
+        <v>51.80240320427237</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1779</v>
+      </c>
+      <c r="R47" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="S47" t="n">
+        <v>186.25</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-10.77844311377246</v>
+      </c>
+      <c r="V47" t="n">
+        <v>29500</v>
+      </c>
+      <c r="W47" t="n">
+        <v>11200</v>
+      </c>
+      <c r="X47" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>25138</v>
+      </c>
+      <c r="E48" t="n">
+        <v>975</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4.035094979927989</v>
+      </c>
+      <c r="G48" t="n">
+        <v>19794</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>291.95</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24.89999999999998</v>
+      </c>
+      <c r="K48" t="n">
+        <v>9.324096611121504</v>
+      </c>
+      <c r="L48" t="n">
+        <v>36700</v>
+      </c>
+      <c r="M48" t="n">
+        <v>53000</v>
+      </c>
+      <c r="N48" t="n">
+        <v>34130</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2835</v>
+      </c>
+      <c r="P48" t="n">
+        <v>9.058955104649305</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>25473</v>
+      </c>
+      <c r="R48" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="S48" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-22.25</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-9.671810475983483</v>
+      </c>
+      <c r="V48" t="n">
+        <v>106500</v>
+      </c>
+      <c r="W48" t="n">
+        <v>41700</v>
+      </c>
+      <c r="X48" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45162.54326388889</v>
+      </c>
+      <c r="B49" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1070</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-2.014652014652015</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1303</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>264</v>
+      </c>
+      <c r="J49" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>10.69182389937107</v>
+      </c>
+      <c r="L49" t="n">
+        <v>14400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>14400</v>
+      </c>
+      <c r="N49" t="n">
+        <v>765</v>
+      </c>
+      <c r="O49" t="n">
+        <v>228</v>
+      </c>
+      <c r="P49" t="n">
+        <v>42.45810055865922</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1680</v>
+      </c>
+      <c r="R49" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>225.15</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-23.79999999999998</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-9.560152641092582</v>
+      </c>
+      <c r="V49" t="n">
+        <v>19150</v>
+      </c>
+      <c r="W49" t="n">
+        <v>13200</v>
+      </c>
+      <c r="X49" t="n">
+        <v>19448.65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B50" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4412</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-192</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-4.170286707211121</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3258</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="I50" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>34.94999999999999</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8.903324417271682</v>
+      </c>
+      <c r="L50" t="n">
+        <v>23650</v>
+      </c>
+      <c r="M50" t="n">
+        <v>19750</v>
+      </c>
+      <c r="N50" t="n">
+        <v>15399</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-637</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-3.972312297331005</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>11739</v>
+      </c>
+      <c r="R50" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="S50" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-19.55000000000001</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-12.43243243243244</v>
+      </c>
+      <c r="V50" t="n">
+        <v>37300</v>
+      </c>
+      <c r="W50" t="n">
+        <v>31850</v>
+      </c>
+      <c r="X50" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B51" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>574</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.773049645390071</v>
+      </c>
+      <c r="G51" t="n">
+        <v>306</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="I51" t="n">
+        <v>392.35</v>
+      </c>
+      <c r="J51" t="n">
+        <v>33.40000000000003</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9.304917119375968</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8300</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1371</v>
+      </c>
+      <c r="O51" t="n">
+        <v>176</v>
+      </c>
+      <c r="P51" t="n">
+        <v>14.72803347280335</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1084</v>
+      </c>
+      <c r="R51" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="S51" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-19.59999999999999</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-11.41525917297612</v>
+      </c>
+      <c r="V51" t="n">
+        <v>14700</v>
+      </c>
+      <c r="W51" t="n">
+        <v>11050</v>
+      </c>
+      <c r="X51" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>5355</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-370</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-6.462882096069869</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3439</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I52" t="n">
+        <v>360.05</v>
+      </c>
+      <c r="J52" t="n">
+        <v>33.85000000000002</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10.37706928264869</v>
+      </c>
+      <c r="L52" t="n">
+        <v>23700</v>
+      </c>
+      <c r="M52" t="n">
+        <v>22950</v>
+      </c>
+      <c r="N52" t="n">
+        <v>14919</v>
+      </c>
+      <c r="O52" t="n">
+        <v>38</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.2553591828506149</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>11966</v>
+      </c>
+      <c r="R52" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="S52" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-20.94999999999999</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-11.09346041832141</v>
+      </c>
+      <c r="V52" t="n">
+        <v>33500</v>
+      </c>
+      <c r="W52" t="n">
+        <v>37200</v>
+      </c>
+      <c r="X52" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B53" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>804</v>
+      </c>
+      <c r="E53" t="n">
+        <v>185</v>
+      </c>
+      <c r="F53" t="n">
+        <v>29.88691437802908</v>
+      </c>
+      <c r="G53" t="n">
+        <v>935</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I53" t="n">
+        <v>327</v>
+      </c>
+      <c r="J53" t="n">
+        <v>32.35000000000002</v>
+      </c>
+      <c r="K53" t="n">
+        <v>10.97912777872052</v>
+      </c>
+      <c r="L53" t="n">
+        <v>12050</v>
+      </c>
+      <c r="M53" t="n">
+        <v>12700</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1124</v>
+      </c>
+      <c r="O53" t="n">
+        <v>375</v>
+      </c>
+      <c r="P53" t="n">
+        <v>50.06675567423231</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1778</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="S53" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-23.65000000000001</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-11.32934131736527</v>
+      </c>
+      <c r="V53" t="n">
+        <v>28900</v>
+      </c>
+      <c r="W53" t="n">
+        <v>10850</v>
+      </c>
+      <c r="X53" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B54" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>25176</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1013</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.192360220171336</v>
+      </c>
+      <c r="G54" t="n">
+        <v>19685</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I54" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="J54" t="n">
+        <v>29.19999999999999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>10.9342819696686</v>
+      </c>
+      <c r="L54" t="n">
+        <v>41200</v>
+      </c>
+      <c r="M54" t="n">
+        <v>53350</v>
+      </c>
+      <c r="N54" t="n">
+        <v>34130</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2835</v>
+      </c>
+      <c r="P54" t="n">
+        <v>9.058955104649305</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>25323</v>
+      </c>
+      <c r="R54" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="S54" t="n">
+        <v>204.45</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-25.60000000000002</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-11.12801564877202</v>
+      </c>
+      <c r="V54" t="n">
+        <v>104600</v>
+      </c>
+      <c r="W54" t="n">
+        <v>42050</v>
+      </c>
+      <c r="X54" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45162.54256944444</v>
+      </c>
+      <c r="B55" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-26</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-2.380952380952381</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1296</v>
+      </c>
+      <c r="H55" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="I55" t="n">
+        <v>267</v>
+      </c>
+      <c r="J55" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>11.94968553459119</v>
+      </c>
+      <c r="L55" t="n">
+        <v>14400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>13550</v>
+      </c>
+      <c r="N55" t="n">
+        <v>765</v>
+      </c>
+      <c r="O55" t="n">
+        <v>228</v>
+      </c>
+      <c r="P55" t="n">
+        <v>42.45810055865922</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1678</v>
+      </c>
+      <c r="R55" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>225</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-23.94999999999999</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-9.620405703956614</v>
+      </c>
+      <c r="V55" t="n">
+        <v>17650</v>
+      </c>
+      <c r="W55" t="n">
+        <v>12600</v>
+      </c>
+      <c r="X55" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B56" t="n">
+        <v>19300</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>4412</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-192</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-4.170286707211121</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3258</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="I56" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>34.94999999999999</v>
+      </c>
+      <c r="K56" t="n">
+        <v>8.903324417271682</v>
+      </c>
+      <c r="L56" t="n">
+        <v>23650</v>
+      </c>
+      <c r="M56" t="n">
+        <v>19750</v>
+      </c>
+      <c r="N56" t="n">
+        <v>15399</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-637</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-3.972312297331005</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>11739</v>
+      </c>
+      <c r="R56" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="S56" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-19.55000000000001</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-12.43243243243244</v>
+      </c>
+      <c r="V56" t="n">
+        <v>37300</v>
+      </c>
+      <c r="W56" t="n">
+        <v>31850</v>
+      </c>
+      <c r="X56" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B57" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>574</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.773049645390071</v>
+      </c>
+      <c r="G57" t="n">
+        <v>306</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="I57" t="n">
+        <v>392.35</v>
+      </c>
+      <c r="J57" t="n">
+        <v>33.40000000000003</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9.304917119375968</v>
+      </c>
+      <c r="L57" t="n">
+        <v>8300</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1371</v>
+      </c>
+      <c r="O57" t="n">
+        <v>176</v>
+      </c>
+      <c r="P57" t="n">
+        <v>14.72803347280335</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1084</v>
+      </c>
+      <c r="R57" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="S57" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-19.59999999999999</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-11.41525917297612</v>
+      </c>
+      <c r="V57" t="n">
+        <v>14700</v>
+      </c>
+      <c r="W57" t="n">
+        <v>11050</v>
+      </c>
+      <c r="X57" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B58" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>5355</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-370</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-6.462882096069869</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3439</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>360.05</v>
+      </c>
+      <c r="J58" t="n">
+        <v>33.85000000000002</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10.37706928264869</v>
+      </c>
+      <c r="L58" t="n">
+        <v>23700</v>
+      </c>
+      <c r="M58" t="n">
+        <v>22950</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14919</v>
+      </c>
+      <c r="O58" t="n">
+        <v>38</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.2553591828506149</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>11966</v>
+      </c>
+      <c r="R58" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="S58" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-20.94999999999999</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-11.09346041832141</v>
+      </c>
+      <c r="V58" t="n">
+        <v>33500</v>
+      </c>
+      <c r="W58" t="n">
+        <v>37200</v>
+      </c>
+      <c r="X58" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B59" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>804</v>
+      </c>
+      <c r="E59" t="n">
+        <v>185</v>
+      </c>
+      <c r="F59" t="n">
+        <v>29.88691437802908</v>
+      </c>
+      <c r="G59" t="n">
+        <v>935</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I59" t="n">
+        <v>327</v>
+      </c>
+      <c r="J59" t="n">
+        <v>32.35000000000002</v>
+      </c>
+      <c r="K59" t="n">
+        <v>10.97912777872052</v>
+      </c>
+      <c r="L59" t="n">
+        <v>12050</v>
+      </c>
+      <c r="M59" t="n">
+        <v>12700</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1124</v>
+      </c>
+      <c r="O59" t="n">
+        <v>375</v>
+      </c>
+      <c r="P59" t="n">
+        <v>50.06675567423231</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1778</v>
+      </c>
+      <c r="R59" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="S59" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-23.65000000000001</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-11.32934131736527</v>
+      </c>
+      <c r="V59" t="n">
+        <v>28900</v>
+      </c>
+      <c r="W59" t="n">
+        <v>10850</v>
+      </c>
+      <c r="X59" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>25176</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1013</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4.192360220171336</v>
+      </c>
+      <c r="G60" t="n">
+        <v>19685</v>
+      </c>
+      <c r="H60" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>296.25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>29.19999999999999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>10.9342819696686</v>
+      </c>
+      <c r="L60" t="n">
+        <v>41200</v>
+      </c>
+      <c r="M60" t="n">
+        <v>53350</v>
+      </c>
+      <c r="N60" t="n">
+        <v>34130</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2835</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9.058955104649305</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25323</v>
+      </c>
+      <c r="R60" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="S60" t="n">
+        <v>204.45</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-25.60000000000002</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-11.12801564877202</v>
+      </c>
+      <c r="V60" t="n">
+        <v>104600</v>
+      </c>
+      <c r="W60" t="n">
+        <v>42050</v>
+      </c>
+      <c r="X60" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45162.541875</v>
+      </c>
+      <c r="B61" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-26</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-2.380952380952381</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1296</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="I61" t="n">
+        <v>267</v>
+      </c>
+      <c r="J61" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>11.94968553459119</v>
+      </c>
+      <c r="L61" t="n">
+        <v>14400</v>
+      </c>
+      <c r="M61" t="n">
+        <v>13550</v>
+      </c>
+      <c r="N61" t="n">
+        <v>765</v>
+      </c>
+      <c r="O61" t="n">
+        <v>228</v>
+      </c>
+      <c r="P61" t="n">
+        <v>42.45810055865922</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1678</v>
+      </c>
+      <c r="R61" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>225</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-23.94999999999999</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-9.620405703956614</v>
+      </c>
+      <c r="V61" t="n">
+        <v>17650</v>
+      </c>
+      <c r="W61" t="n">
+        <v>12600</v>
+      </c>
+      <c r="X61" t="n">
+        <v>19448.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19350</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>573</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.595744680851064</v>
+      </c>
+      <c r="G62" t="n">
+        <v>306</v>
+      </c>
+      <c r="H62" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="I62" t="n">
+        <v>392.35</v>
+      </c>
+      <c r="J62" t="n">
+        <v>33.40000000000003</v>
+      </c>
+      <c r="K62" t="n">
+        <v>9.304917119375968</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9300</v>
+      </c>
+      <c r="M62" t="n">
+        <v>8950</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1371</v>
+      </c>
+      <c r="O62" t="n">
+        <v>176</v>
+      </c>
+      <c r="P62" t="n">
+        <v>14.72803347280335</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1083</v>
+      </c>
+      <c r="R62" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="S62" t="n">
+        <v>152.65</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-19.04999999999998</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-11.09493302271403</v>
+      </c>
+      <c r="V62" t="n">
+        <v>14300</v>
+      </c>
+      <c r="W62" t="n">
+        <v>10650</v>
+      </c>
+      <c r="X62" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B63" t="n">
+        <v>19400</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>5353</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-372</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-6.497816593886463</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3395</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I63" t="n">
+        <v>358.45</v>
+      </c>
+      <c r="J63" t="n">
+        <v>32.25</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9.886572654813</v>
+      </c>
+      <c r="L63" t="n">
+        <v>29350</v>
+      </c>
+      <c r="M63" t="n">
+        <v>18550</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14919</v>
+      </c>
+      <c r="O63" t="n">
+        <v>38</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.2553591828506149</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>11930</v>
+      </c>
+      <c r="R63" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="S63" t="n">
+        <v>169</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-19.84999999999999</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-10.51098755626158</v>
+      </c>
+      <c r="V63" t="n">
+        <v>33200</v>
+      </c>
+      <c r="W63" t="n">
+        <v>38200</v>
+      </c>
+      <c r="X63" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19450</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>797</v>
+      </c>
+      <c r="E64" t="n">
+        <v>178</v>
+      </c>
+      <c r="F64" t="n">
+        <v>28.75605815831987</v>
+      </c>
+      <c r="G64" t="n">
+        <v>934</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="I64" t="n">
+        <v>325.7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>31.05000000000001</v>
+      </c>
+      <c r="K64" t="n">
+        <v>10.53792635330053</v>
+      </c>
+      <c r="L64" t="n">
+        <v>14700</v>
+      </c>
+      <c r="M64" t="n">
+        <v>12300</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1124</v>
+      </c>
+      <c r="O64" t="n">
+        <v>375</v>
+      </c>
+      <c r="P64" t="n">
+        <v>50.06675567423231</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1752</v>
+      </c>
+      <c r="R64" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="S64" t="n">
+        <v>185.95</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-22.80000000000001</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-10.92215568862276</v>
+      </c>
+      <c r="V64" t="n">
+        <v>28800</v>
+      </c>
+      <c r="W64" t="n">
+        <v>10500</v>
+      </c>
+      <c r="X64" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>25176</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1013</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4.192360220171336</v>
+      </c>
+      <c r="G65" t="n">
+        <v>19643</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="I65" t="n">
+        <v>296.15</v>
+      </c>
+      <c r="J65" t="n">
+        <v>29.09999999999997</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10.89683579853959</v>
+      </c>
+      <c r="L65" t="n">
+        <v>39250</v>
+      </c>
+      <c r="M65" t="n">
+        <v>53050</v>
+      </c>
+      <c r="N65" t="n">
+        <v>34130</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2835</v>
+      </c>
+      <c r="P65" t="n">
+        <v>9.058955104649305</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>25200</v>
+      </c>
+      <c r="R65" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="S65" t="n">
+        <v>205.1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-24.95000000000002</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-10.84546837643991</v>
+      </c>
+      <c r="V65" t="n">
+        <v>104400</v>
+      </c>
+      <c r="W65" t="n">
+        <v>43050</v>
+      </c>
+      <c r="X65" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B66" t="n">
+        <v>19550</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-2.472527472527473</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1286</v>
+      </c>
+      <c r="H66" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="I66" t="n">
+        <v>266</v>
+      </c>
+      <c r="J66" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>11.53039832285115</v>
+      </c>
+      <c r="L66" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M66" t="n">
+        <v>13150</v>
+      </c>
+      <c r="N66" t="n">
+        <v>765</v>
+      </c>
+      <c r="O66" t="n">
+        <v>228</v>
+      </c>
+      <c r="P66" t="n">
+        <v>42.45810055865922</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1678</v>
+      </c>
+      <c r="R66" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>225</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-23.94999999999999</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-9.620405703956614</v>
+      </c>
+      <c r="V66" t="n">
+        <v>19000</v>
+      </c>
+      <c r="W66" t="n">
+        <v>11750</v>
+      </c>
+      <c r="X66" t="n">
+        <v>19446.25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45162.54118055556</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19600</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>28-Sep-2023</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>7500</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E67" t="n">
         <v>768</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F67" t="n">
         <v>11.40819964349376</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G67" t="n">
         <v>9939</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H67" t="n">
         <v>9.15</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I67" t="n">
         <v>237.65</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J67" t="n">
         <v>23.90000000000001</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K67" t="n">
         <v>11.1812865497076</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L67" t="n">
         <v>32250</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M67" t="n">
         <v>32700</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N67" t="n">
         <v>6398</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O67" t="n">
         <v>382</v>
       </c>
-      <c r="P37" t="n">
+      <c r="P67" t="n">
         <v>6.349734042553192</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q67" t="n">
         <v>11889</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R67" t="n">
         <v>11.04</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S67" t="n">
         <v>246.65</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T67" t="n">
         <v>-24.70000000000002</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U67" t="n">
         <v>-9.102634973281745</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V67" t="n">
         <v>36300</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W67" t="n">
         <v>25100</v>
       </c>
-      <c r="X37" t="n">
+      <c r="X67" t="n">
         <v>19446.25</v>
       </c>
     </row>
